--- a/data/trans_dic/P0902-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P0902-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05871300393365906</v>
+        <v>0.06002184075293655</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.09554119882707428</v>
+        <v>0.09389759282274279</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0909347243886012</v>
+        <v>0.09126628562579307</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1157525866557159</v>
+        <v>0.1162132487902719</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.08259628134451269</v>
+        <v>0.08161383313158944</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1788531609228232</v>
+        <v>0.1804271012393108</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1929634650720725</v>
+        <v>0.1949942398546042</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1719484097366444</v>
+        <v>0.1674864209152131</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.07594044182657243</v>
+        <v>0.0746484001442341</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1446655169671275</v>
+        <v>0.146597320786485</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1524761683074654</v>
+        <v>0.1480937062589772</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1493187108291069</v>
+        <v>0.1490506135223074</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09581738052109501</v>
+        <v>0.09887006753624751</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1465905085957165</v>
+        <v>0.1484563367740394</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1419753463013271</v>
+        <v>0.1423302421664231</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1694566247982574</v>
+        <v>0.1705551170555933</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1275650721401442</v>
+        <v>0.1276218862268614</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2431549123057022</v>
+        <v>0.2430230564424723</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.258397989982709</v>
+        <v>0.2609689963711066</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2137113554874836</v>
+        <v>0.2139797669982004</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1083556897334166</v>
+        <v>0.1054573116825908</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1857912221669137</v>
+        <v>0.1852772538083534</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1931359623094019</v>
+        <v>0.1891364548426066</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1867285620309801</v>
+        <v>0.1844847721127685</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.06518660425197194</v>
+        <v>0.06571007776490184</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.09858644504250859</v>
+        <v>0.0981272756154843</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.07279351680052301</v>
+        <v>0.07249199790971206</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.09252110885319074</v>
+        <v>0.09214443397180737</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.113635615821686</v>
+        <v>0.1138811741472344</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1946652410638154</v>
+        <v>0.1930882872763666</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1429618491404599</v>
+        <v>0.1412356967837092</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1786005919587657</v>
+        <v>0.1774870777430207</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.09507203240463723</v>
+        <v>0.09517355621494455</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1544126136543437</v>
+        <v>0.1545379802628981</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1133546219284885</v>
+        <v>0.1142205977536681</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1397148310613933</v>
+        <v>0.1403241996231712</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1004690045853621</v>
+        <v>0.09964839349257378</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.139541166786837</v>
+        <v>0.1408609458039957</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1094788229006577</v>
+        <v>0.1090661336099658</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1323177904693173</v>
+        <v>0.1338385770298528</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.159673955754213</v>
+        <v>0.1594623209693507</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2489631943777618</v>
+        <v>0.2465022561706575</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1895778128883075</v>
+        <v>0.1925607022434137</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2168407821296513</v>
+        <v>0.2176699502252278</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1224024462344532</v>
+        <v>0.1246104002269992</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1877323843151635</v>
+        <v>0.187133785345492</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1438717874893499</v>
+        <v>0.1460225383337244</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1677310577474893</v>
+        <v>0.1699960333841548</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0681265718573897</v>
+        <v>0.06687799620737755</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06855380388663661</v>
+        <v>0.06771310920034358</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05409839004365641</v>
+        <v>0.05476931266958607</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1071511536441347</v>
+        <v>0.108863154291328</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1409376944052483</v>
+        <v>0.1405264462544127</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1479811135453037</v>
+        <v>0.149318433808645</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1365141884429681</v>
+        <v>0.1344988930094871</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1680628596475561</v>
+        <v>0.1661798143486929</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1102774719293111</v>
+        <v>0.1098409845506113</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1134877385206272</v>
+        <v>0.1146012458343401</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1015187413760871</v>
+        <v>0.1009662632247181</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1435512113562825</v>
+        <v>0.1449200499478564</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1132417099054101</v>
+        <v>0.1114612138870692</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1137768273109895</v>
+        <v>0.1132604037811417</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.09378695037061262</v>
+        <v>0.09470387231593254</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1579888541747745</v>
+        <v>0.1600771354979513</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.19917079745582</v>
+        <v>0.1983721430897366</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2034171206964004</v>
+        <v>0.2033497866618031</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1950227316251978</v>
+        <v>0.1924350902840884</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2160519550403531</v>
+        <v>0.2150515836078592</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1474334941993736</v>
+        <v>0.1474649170613792</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1494792387800981</v>
+        <v>0.1500388017726275</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1355927938041877</v>
+        <v>0.1356326592988663</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1781546545182966</v>
+        <v>0.1797369804914444</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.1340828959170636</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1661378267147</v>
+        <v>0.1661378267147001</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06391626266124183</v>
+        <v>0.06491817001285551</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.09115246022863513</v>
+        <v>0.09167915875467426</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07683523202518261</v>
+        <v>0.07862732369848392</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1013294511790881</v>
+        <v>0.1008297881611279</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1456163090804591</v>
+        <v>0.1462187785821894</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1673792682216924</v>
+        <v>0.1659957565234061</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1435409970701779</v>
+        <v>0.1447195859471764</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1854826312495852</v>
+        <v>0.1869119233702936</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1133898086779707</v>
+        <v>0.1127968035229487</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1356072415027135</v>
+        <v>0.1376924425654922</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1188519308342424</v>
+        <v>0.1176733726854382</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1541438955162349</v>
+        <v>0.1518594229270867</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.09835942469313032</v>
+        <v>0.09892253609456171</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.134081618194118</v>
+        <v>0.1338376458516099</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1171162364614611</v>
+        <v>0.1169723652707335</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1409871694847079</v>
+        <v>0.1421428725125533</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1938002326239934</v>
+        <v>0.1944662627761431</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2167209566639322</v>
+        <v>0.2167956699750497</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1950623736846823</v>
+        <v>0.1921994734670058</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.226998976830515</v>
+        <v>0.2282636501823582</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1439743635408363</v>
+        <v>0.1435839552262461</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1687014735863609</v>
+        <v>0.1706971816114092</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1518656391352907</v>
+        <v>0.1493356500948542</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1810301152187954</v>
+        <v>0.181117205378241</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0722116170627532</v>
+        <v>0.07125861352706866</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.09849274325348616</v>
+        <v>0.09894960269887848</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08239111143763561</v>
+        <v>0.08173079213719625</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.114139292084899</v>
+        <v>0.1133629790276453</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1336954076318706</v>
+        <v>0.1355410033041544</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1877240959877323</v>
+        <v>0.1861066158704865</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1632946993012803</v>
+        <v>0.1644571637175529</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1859135352263089</v>
+        <v>0.1862220758199327</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1066149283771311</v>
+        <v>0.1068637554077966</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1468464836656466</v>
+        <v>0.1468240236114814</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1271677465372974</v>
+        <v>0.1272847776515448</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1545480778478216</v>
+        <v>0.1539307313318631</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.09180680694019218</v>
+        <v>0.09064470691812312</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1214023683195498</v>
+        <v>0.121140322118327</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1012864138932084</v>
+        <v>0.1017971627097236</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1355439976204805</v>
+        <v>0.1358335931707598</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.158173292165208</v>
+        <v>0.1601318938960184</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.214035376244288</v>
+        <v>0.2131996717722293</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1906580238612462</v>
+        <v>0.1917950354221123</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2062855535017477</v>
+        <v>0.2083180777231591</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1222099308664998</v>
+        <v>0.1224697837226158</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.164971292363422</v>
+        <v>0.1646585147154178</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.14459346950129</v>
+        <v>0.1443587801942836</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.169797006110402</v>
+        <v>0.1695550106056338</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>40748</v>
+        <v>41656</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>67210</v>
+        <v>66054</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>61363</v>
+        <v>61586</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>79894</v>
+        <v>80212</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>56855</v>
+        <v>56179</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>124670</v>
+        <v>125767</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>129833</v>
+        <v>131200</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>125958</v>
+        <v>122689</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>104977</v>
+        <v>103191</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>202607</v>
+        <v>205312</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>205483</v>
+        <v>199577</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>212443</v>
+        <v>212062</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>66498</v>
+        <v>68617</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>103122</v>
+        <v>104434</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>95805</v>
+        <v>96044</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>116962</v>
+        <v>117720</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>87810</v>
+        <v>87849</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>169491</v>
+        <v>169399</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>173860</v>
+        <v>175590</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>156551</v>
+        <v>156747</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>149787</v>
+        <v>145780</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>260204</v>
+        <v>259484</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>260278</v>
+        <v>254888</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>265668</v>
+        <v>262476</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>62696</v>
+        <v>63200</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>100265</v>
+        <v>99798</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>74426</v>
+        <v>74118</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>96954</v>
+        <v>96559</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>110044</v>
+        <v>110282</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>200723</v>
+        <v>199097</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>149097</v>
+        <v>147297</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>191054</v>
+        <v>189863</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>183507</v>
+        <v>183703</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>316260</v>
+        <v>316516</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>234116</v>
+        <v>235905</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>295866</v>
+        <v>297157</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>96631</v>
+        <v>95842</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>141917</v>
+        <v>143259</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>111935</v>
+        <v>111513</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>138658</v>
+        <v>140251</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>154627</v>
+        <v>154422</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>256711</v>
+        <v>254173</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>197713</v>
+        <v>200824</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>231961</v>
+        <v>232848</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>236260</v>
+        <v>240522</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>384503</v>
+        <v>383277</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>297145</v>
+        <v>301587</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>355195</v>
+        <v>359991</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>46224</v>
+        <v>45377</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>51938</v>
+        <v>51301</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>41091</v>
+        <v>41600</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>86050</v>
+        <v>87425</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>96379</v>
+        <v>96098</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>114724</v>
+        <v>115761</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>107165</v>
+        <v>105583</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>136511</v>
+        <v>134981</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>150237</v>
+        <v>149642</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>173964</v>
+        <v>175671</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>156802</v>
+        <v>155949</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>231883</v>
+        <v>234094</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>76836</v>
+        <v>75627</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>86200</v>
+        <v>85809</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>71236</v>
+        <v>71933</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>126877</v>
+        <v>128554</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>136201</v>
+        <v>135655</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>157702</v>
+        <v>157649</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>153095</v>
+        <v>151064</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>175490</v>
+        <v>174678</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>200856</v>
+        <v>200899</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>229134</v>
+        <v>229992</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>209432</v>
+        <v>209493</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>287779</v>
+        <v>290335</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>60223</v>
+        <v>61167</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>86389</v>
+        <v>86888</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>72038</v>
+        <v>73718</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>100151</v>
+        <v>99657</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>151239</v>
+        <v>151865</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>175904</v>
+        <v>174450</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>149825</v>
+        <v>151055</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>207563</v>
+        <v>209162</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>224606</v>
+        <v>223432</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>271034</v>
+        <v>275202</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>235487</v>
+        <v>233152</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>324845</v>
+        <v>320031</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>92676</v>
+        <v>93207</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>127074</v>
+        <v>126843</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>109804</v>
+        <v>109669</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>139348</v>
+        <v>140490</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>201283</v>
+        <v>201975</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>227759</v>
+        <v>227838</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>203602</v>
+        <v>200614</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>254021</v>
+        <v>255436</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>285189</v>
+        <v>284416</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>337179</v>
+        <v>341168</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>300898</v>
+        <v>295886</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>381505</v>
+        <v>381689</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>236604</v>
+        <v>233482</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>337422</v>
+        <v>338987</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>279664</v>
+        <v>277423</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>402863</v>
+        <v>400123</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>451783</v>
+        <v>458020</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>667240</v>
+        <v>661490</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>578805</v>
+        <v>582925</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>694120</v>
+        <v>695272</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>709601</v>
+        <v>711257</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1025021</v>
+        <v>1024864</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>882403</v>
+        <v>883215</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1122504</v>
+        <v>1118020</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>300809</v>
+        <v>297001</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>415907</v>
+        <v>415010</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>343802</v>
+        <v>345535</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>478413</v>
+        <v>479435</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>534499</v>
+        <v>541117</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>760759</v>
+        <v>757789</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>675795</v>
+        <v>679826</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>770180</v>
+        <v>777769</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>813398</v>
+        <v>815127</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1151536</v>
+        <v>1149353</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1003318</v>
+        <v>1001690</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1233259</v>
+        <v>1231502</v>
       </c>
     </row>
     <row r="24">
